--- a/Ausgabe/Laufzeit.xlsx
+++ b/Ausgabe/Laufzeit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Epsilon</t>
   </si>
@@ -35,7 +35,13 @@
     <t>Tau</t>
   </si>
   <si>
-    <t>Laufzeit</t>
+    <t>Laufzeit Toy 2d</t>
+  </si>
+  <si>
+    <t>Laufzeit Bananas 1 2d</t>
+  </si>
+  <si>
+    <t>Laufzeit Bananas 1 4d</t>
   </si>
 </sst>
 </file>
@@ -51,12 +57,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -388,15 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,10 +425,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -423,8 +447,17 @@
       <c r="D2">
         <v>347</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>308</v>
+      </c>
+      <c r="F2" s="2">
+        <v>402</v>
+      </c>
+      <c r="G2" s="2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -434,11 +467,20 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="2">
+        <v>406</v>
+      </c>
+      <c r="F3" s="2">
+        <v>377</v>
+      </c>
+      <c r="G3" s="2">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -451,8 +493,17 @@
       <c r="D4">
         <v>383</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>396</v>
+      </c>
+      <c r="F4">
+        <v>350</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -465,8 +516,17 @@
       <c r="D5">
         <v>349</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>517</v>
+      </c>
+      <c r="F5">
+        <v>366</v>
+      </c>
+      <c r="G5" s="2">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -479,8 +539,17 @@
       <c r="D6">
         <v>382</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>488</v>
+      </c>
+      <c r="F6">
+        <v>390</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -493,8 +562,17 @@
       <c r="D7">
         <v>337</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>491</v>
+      </c>
+      <c r="F7">
+        <v>373</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -507,8 +585,17 @@
       <c r="D8">
         <v>425</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>499</v>
+      </c>
+      <c r="F8">
+        <v>379</v>
+      </c>
+      <c r="G8" s="2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -521,8 +608,17 @@
       <c r="D9">
         <v>371</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>490</v>
+      </c>
+      <c r="F9">
+        <v>354</v>
+      </c>
+      <c r="G9" s="2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -535,8 +631,17 @@
       <c r="D10">
         <v>394</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>493</v>
+      </c>
+      <c r="F10">
+        <v>348</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -547,13 +652,19 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="E11">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="F11">
+        <v>361</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1.5</v>
       </c>
@@ -566,8 +677,17 @@
       <c r="D12">
         <v>338</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>498</v>
+      </c>
+      <c r="F12" s="2">
+        <v>359</v>
+      </c>
+      <c r="G12" s="2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1.5</v>
       </c>
@@ -577,8 +697,17 @@
       <c r="C13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13" s="2">
+        <v>301</v>
+      </c>
+      <c r="E13" s="2">
+        <v>482</v>
+      </c>
+      <c r="F13" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.5</v>
       </c>
@@ -591,8 +720,14 @@
       <c r="D14">
         <v>317</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>472</v>
+      </c>
+      <c r="F14">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1.5</v>
       </c>
@@ -602,8 +737,17 @@
       <c r="C15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>338</v>
+      </c>
+      <c r="E15">
+        <v>489</v>
+      </c>
+      <c r="F15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1.5</v>
       </c>
@@ -616,8 +760,14 @@
       <c r="D16">
         <v>347</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>486</v>
+      </c>
+      <c r="F16">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1.5</v>
       </c>
@@ -627,8 +777,17 @@
       <c r="C17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>331</v>
+      </c>
+      <c r="E17">
+        <v>501</v>
+      </c>
+      <c r="F17">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.5</v>
       </c>
@@ -641,8 +800,14 @@
       <c r="D18">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>501</v>
+      </c>
+      <c r="F18">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1.5</v>
       </c>
@@ -652,8 +817,17 @@
       <c r="C19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>422</v>
+      </c>
+      <c r="E19">
+        <v>493</v>
+      </c>
+      <c r="F19">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1.5</v>
       </c>
@@ -666,8 +840,14 @@
       <c r="D20">
         <v>335</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>407</v>
+      </c>
+      <c r="F20">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1.5</v>
       </c>
@@ -677,8 +857,17 @@
       <c r="C21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>304</v>
+      </c>
+      <c r="E21">
+        <v>353</v>
+      </c>
+      <c r="F21">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -688,8 +877,17 @@
       <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>387</v>
+      </c>
+      <c r="E22">
+        <v>383</v>
+      </c>
+      <c r="F22" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -699,8 +897,17 @@
       <c r="C23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="2">
+        <v>356</v>
+      </c>
+      <c r="E23" s="2">
+        <v>314</v>
+      </c>
+      <c r="F23" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -710,8 +917,17 @@
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>362</v>
+      </c>
+      <c r="E24">
+        <v>367</v>
+      </c>
+      <c r="F24">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -721,8 +937,17 @@
       <c r="C25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>353</v>
+      </c>
+      <c r="E25">
+        <v>367</v>
+      </c>
+      <c r="F25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -732,8 +957,17 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>397</v>
+      </c>
+      <c r="E26">
+        <v>340</v>
+      </c>
+      <c r="F26">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -743,8 +977,17 @@
       <c r="C27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>462</v>
+      </c>
+      <c r="E27">
+        <v>352</v>
+      </c>
+      <c r="F27">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -754,8 +997,17 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>459</v>
+      </c>
+      <c r="E28">
+        <v>353</v>
+      </c>
+      <c r="F28">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -765,8 +1017,17 @@
       <c r="C29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>456</v>
+      </c>
+      <c r="E29">
+        <v>381</v>
+      </c>
+      <c r="F29">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -779,8 +1040,14 @@
       <c r="D30">
         <v>314</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>370</v>
+      </c>
+      <c r="F30">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -790,8 +1057,17 @@
       <c r="C31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>365</v>
+      </c>
+      <c r="E31">
+        <v>506</v>
+      </c>
+      <c r="F31">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
